--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>566.4647594158622</v>
+        <v>38.13620260179566</v>
       </c>
       <c r="R2">
-        <v>5098.18283474276</v>
+        <v>343.225823416161</v>
       </c>
       <c r="S2">
-        <v>0.3393469432136901</v>
+        <v>0.0824678618501639</v>
       </c>
       <c r="T2">
-        <v>0.3393469432136901</v>
+        <v>0.08246786185016391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>602.8632925680146</v>
+        <v>112.6654416185363</v>
       </c>
       <c r="R3">
-        <v>5425.769633112131</v>
+        <v>1013.988974566827</v>
       </c>
       <c r="S3">
-        <v>0.3611518847521225</v>
+        <v>0.243634065292271</v>
       </c>
       <c r="T3">
-        <v>0.3611518847521226</v>
+        <v>0.2436340652922711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>168.8011410746387</v>
+        <v>15.01128622741066</v>
       </c>
       <c r="R4">
-        <v>1519.210269671748</v>
+        <v>135.101576046696</v>
       </c>
       <c r="S4">
-        <v>0.101122179769366</v>
+        <v>0.03246124664591228</v>
       </c>
       <c r="T4">
-        <v>0.101122179769366</v>
+        <v>0.03246124664591229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>2.84826030356</v>
+        <v>1.026059023573</v>
       </c>
       <c r="R5">
-        <v>25.63434273204</v>
+        <v>9.234531212157</v>
       </c>
       <c r="S5">
-        <v>0.001706281655520259</v>
+        <v>0.002218807538067463</v>
       </c>
       <c r="T5">
-        <v>0.00170628165552026</v>
+        <v>0.002218807538067464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>3.031276979111</v>
@@ -818,10 +818,10 @@
         <v>27.281492811999</v>
       </c>
       <c r="S6">
-        <v>0.001815919807537708</v>
+        <v>0.00655500322759292</v>
       </c>
       <c r="T6">
-        <v>0.001815919807537708</v>
+        <v>0.006555003227592921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>0.8487546335879999</v>
+        <v>0.403880424328</v>
       </c>
       <c r="R7">
-        <v>7.638791702291999</v>
+        <v>3.634923818952</v>
       </c>
       <c r="S7">
-        <v>0.0005084557965151293</v>
+        <v>0.0008733736650512443</v>
       </c>
       <c r="T7">
-        <v>0.0005084557965151295</v>
+        <v>0.0008733736650512444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>137.33607498968</v>
+        <v>67.19613039485233</v>
       </c>
       <c r="R8">
-        <v>1236.02467490712</v>
+        <v>604.7651735536709</v>
       </c>
       <c r="S8">
-        <v>0.08227268592802242</v>
+        <v>0.1453086783739542</v>
       </c>
       <c r="T8">
-        <v>0.08227268592802245</v>
+        <v>0.1453086783739542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>146.160686927858</v>
+        <v>198.5169258995997</v>
       </c>
       <c r="R9">
-        <v>1315.446182350722</v>
+        <v>1786.652333096397</v>
       </c>
       <c r="S9">
-        <v>0.08755916674874599</v>
+        <v>0.4292841264493534</v>
       </c>
       <c r="T9">
-        <v>0.087559166748746</v>
+        <v>0.4292841264493534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>40.92485151746399</v>
+        <v>26.44994199511733</v>
       </c>
       <c r="R10">
-        <v>368.323663657176</v>
+        <v>238.049477956056</v>
       </c>
       <c r="S10">
-        <v>0.02451648232847981</v>
+        <v>0.05719683695763349</v>
       </c>
       <c r="T10">
-        <v>0.02451648232847982</v>
+        <v>0.05719683695763349</v>
       </c>
     </row>
   </sheetData>
